--- a/EML/SupportTool/xlsx2EML-04_Metadata_Template_Example_FCE.xlsx
+++ b/EML/SupportTool/xlsx2EML-04_Metadata_Template_Example_FCE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD/Users/mrugge/Dropbox (Team SEAS)/My Mac (mikes-macbook-pro-2.local)/Desktop/Work/xlsx2EML_04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B0989-8D3C-AC4A-9CC6-21678F064566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81803F20-EC5C-2D49-8F0D-A441FE579774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -127,12 +127,21 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-File Number used to uniquely identify the dataset in the site's Information System (e.g. LT_ND_Childers_001).</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>File Number used to uniquely identify the dataset in the site's Information System (e.g. LT_ND_Childers_001).</t>
         </r>
       </text>
     </comment>
@@ -1532,7 +1541,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1541,18 +1550,27 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Specification of applicable common names.  These common names may be general descriptions of a group of organisms if appropriate.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="10"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specification of applicable common names.  These common names may be general descriptions of a group of organisms if appropriate.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2557,7 +2575,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2566,18 +2584,27 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-URL of dataset associated party. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="10"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">URL of dataset associated party. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2587,7 +2614,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -2596,20 +2623,11 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> suggests that the Associated Party addresses, telephone, email, and URL information is optional and if such information is included, that it be updated periodically.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> suggests that the Associated Party addresses, telephone, email, and URL information is optional and if such information is included, that it be updated periodically.
 </t>
         </r>
       </text>
@@ -4117,7 +4135,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4126,7 +4144,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4137,7 +4155,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="10"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4209,7 +4227,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4218,18 +4236,27 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Specific information about the temporal and geographic extent of the study.  </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="10"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Specific information about the temporal and geographic extent of the study.  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -4238,7 +4265,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5011,7 +5038,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5020,7 +5047,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5030,17 +5057,27 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="10"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
-If the dataset contains MORE than 1 table, separate each entity description with a vertical line delimiter (i.e. Everglades Nutrient Data|Taylor Slough Soil Survey).</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If the dataset contains MORE than 1 table, separate each entity description with a vertical line delimiter (i.e. Everglades Nutrient Data|Taylor Slough Soil Survey).</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5359,7 +5396,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5368,12 +5405,21 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The function of the given URL. Are users able to download data or is this purely informational. (i.e. Download or Informational)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The function of the given URL. Are users able to download data or is this purely informational. (i.e. Download or Informational)
 </t>
         </r>
       </text>
@@ -5463,7 +5509,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5473,7 +5519,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5483,7 +5529,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="10"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5492,7 +5538,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5758,7 +5804,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5767,18 +5813,27 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Description of the research project's key hypotheses and the motivation for beginning the project. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="10"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Description of the research project's key hypotheses and the motivation for beginning the project. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FFFF0000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5787,7 +5842,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -16905,9 +16960,6 @@
     <t>inorganic nutrients</t>
   </si>
   <si>
-    <t>https://fcelter.fiu.edu/perl/public_data_download.pl?datasetid=PHY_Fourqurean_001.txt</t>
-  </si>
-  <si>
     <t>Attribute Annotation</t>
   </si>
   <si>
@@ -17013,6 +17065,9 @@
   <si>
     <t xml:space="preserve"> (In compliance with the Ecological Metadata Language (EML) 2.2.0 Standards and Formats</t>
   </si>
+  <si>
+    <t>https://fce-lter.fiu.edu/perl/public_data_download.pl?datasetid=PHY_Fourqurean_001.txt</t>
+  </si>
 </sst>
 </file>
 
@@ -17024,7 +17079,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -17305,6 +17360,13 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -18690,14 +18752,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -19789,8 +19851,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AN65395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1"/>
@@ -19806,7 +19868,7 @@
     <row r="1" spans="1:26" s="84" customFormat="1" ht="18">
       <c r="A1" s="2"/>
       <c r="B1" s="134" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C1" s="135"/>
       <c r="D1" s="1"/>
@@ -19836,7 +19898,7 @@
     <row r="2" spans="1:26" s="84" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="136" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C2" s="137"/>
       <c r="D2" s="2"/>
@@ -21604,7 +21666,7 @@
         <v>863</v>
       </c>
       <c r="C54" s="177" t="s">
-        <v>1444</v>
+        <v>1472</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -24927,7 +24989,7 @@
         <v>863</v>
       </c>
       <c r="C152" s="177" t="s">
-        <v>1444</v>
+        <v>1472</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
@@ -41433,7 +41495,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="276" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1" s="277"/>
       <c r="C1" s="277"/>
@@ -41551,35 +41613,35 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I5" t="s">
         <v>1446</v>
       </c>
-      <c r="I5" t="s">
-        <v>1447</v>
-      </c>
       <c r="J5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="K5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I6" t="s">
         <v>1448</v>
       </c>
-      <c r="I6" t="s">
-        <v>1449</v>
-      </c>
       <c r="J6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I7" t="s">
         <v>1380</v>
@@ -41593,16 +41655,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I8" s="177" t="s">
         <v>1451</v>
       </c>
-      <c r="I8" s="177" t="s">
+      <c r="J8" t="s">
         <v>1452</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>1453</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -41610,7 +41672,7 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="278" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B16" s="279"/>
       <c r="C16" s="279"/>
@@ -41623,46 +41685,46 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B19" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C19" t="s">
         <v>1458</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C20" t="s">
         <v>1460</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1461</v>
       </c>
     </row>
   </sheetData>
@@ -41697,23 +41759,23 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B2" t="s">
         <v>1462</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B3" t="s">
         <v>1464</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B4">
         <v>9910514</v>
@@ -41729,10 +41791,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B6" t="s">
         <v>1467</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -41745,23 +41807,23 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B10" t="s">
         <v>1462</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B11" t="s">
         <v>1464</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B12">
         <v>620409</v>
@@ -41777,10 +41839,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B14" s="177" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -41798,23 +41860,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B18" t="s">
         <v>1462</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B19" t="s">
         <v>1464</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B20">
         <v>1237517</v>
@@ -41830,10 +41892,10 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B22" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
   </sheetData>
@@ -41868,23 +41930,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B2" t="s">
         <v>1462</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B3" t="s">
         <v>1464</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B4">
         <v>9910514</v>
@@ -41900,10 +41962,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B6" t="s">
         <v>1467</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -41916,23 +41978,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B10" t="s">
         <v>1462</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B11" t="s">
         <v>1464</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B12">
         <v>620409</v>
@@ -41948,10 +42010,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B14" s="177" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -41964,23 +42026,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B18" t="s">
         <v>1462</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B19" t="s">
         <v>1464</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B20">
         <v>1237517</v>
@@ -41996,10 +42058,10 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B22" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
   </sheetData>
